--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/20/seed2/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.596</v>
+        <v>-13.224</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.49</v>
+        <v>-12.139</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.422</v>
+        <v>-12.983</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.056</v>
+        <v>-12.842</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.028</v>
+        <v>-12.223</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.136</v>
+        <v>-12.682</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.556</v>
+        <v>-12.576</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.596</v>
+        <v>-11.941</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.55</v>
+        <v>-12.426</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-11.444</v>
+        <v>-11.443</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.829</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.006</v>
+        <v>-13.155</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-11.926</v>
+        <v>-12.118</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.956</v>
+        <v>-10.676</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.496</v>
+        <v>-12.083</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.08</v>
+        <v>-13.3</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.456</v>
+        <v>-10.595</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.042</v>
+        <v>-11.764</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.354</v>
+        <v>-13.395</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
